--- a/biology/Zoologie/Bocusoides_zhaoi/Bocusoides_zhaoi.xlsx
+++ b/biology/Zoologie/Bocusoides_zhaoi/Bocusoides_zhaoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bocusoides zhaoi, unique représentant du genre Bocusoides, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bocusoides zhaoi, unique représentant du genre Bocusoides, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Yunnan en Chine[1],[2]. Elle se rencontre dans le xian de Mengla.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Yunnan en Chine,. Elle se rencontre dans le xian de Mengla.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 5,00 mm et la femelle paratype 5,59 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 5,00 mm et la femelle paratype 5,59 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Wang et Li en 2022.
 Ce genre a été décrit Wang et Li en 2022 dans les Salticidae.
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Qing-yuan Zhao[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Qing-yuan Zhao.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Wang &amp; Li, 2022 : « On eleven species of jumping spiders from Xishuangbanna, China (Araneae, Salticidae). » ZooKeys, no 1116, p. 85-119 (texte intégral).</t>
         </is>
